--- a/data/processed/split_data.xlsx
+++ b/data/processed/split_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tlecla\projects\python\comp370\COMP370FinalProject\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A01C858-F9AB-4294-B8D4-C9097DAF9B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7AC7F6-A580-4879-90F7-5A5CA19B2D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1082">
   <si>
     <t>source</t>
   </si>
@@ -3418,11 +3418,17 @@
   <si>
     <t>Lately Donald Trump has been so focused on attacking GOP primary rivals like Ron DeSanctimonious and smearing low-level court employees that he hasnt had time for a good celebrity feud. Today on Trut… [+2844 chars]</t>
   </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3770,11 +3776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3787,7 +3793,7 @@
     <col min="6" max="6" width="205.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3806,8 +3812,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
